--- a/data/trans_dic/P21B_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,76</t>
+          <t>0,0; 5,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,0</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 16,01</t>
+          <t>4,21; 16,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,12</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,07</t>
+          <t>0,73; 6,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 13,26</t>
+          <t>2,04; 13,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,84</t>
+          <t>0,43; 4,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,59</t>
+          <t>0,81; 4,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 12,24</t>
+          <t>3,81; 12,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 9,99</t>
+          <t>1,7; 9,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,52</t>
+          <t>1,14; 6,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 18,89</t>
+          <t>5,09; 18,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,05</t>
+          <t>2,66; 9,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,78</t>
+          <t>3,12; 9,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 17,3</t>
+          <t>6,23; 17,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,47</t>
+          <t>2,8; 8,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,02</t>
+          <t>2,86; 7,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,59</t>
+          <t>7,14; 15,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,31</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 9,97</t>
+          <t>0,76; 11,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 14,1</t>
+          <t>1,94; 13,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,18</t>
+          <t>0,62; 5,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,51</t>
+          <t>0,53; 4,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 19,62</t>
+          <t>8,02; 19,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,67</t>
+          <t>0,77; 4,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,29</t>
+          <t>0,97; 5,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,9</t>
+          <t>6,2; 14,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 16,19</t>
+          <t>2,68; 16,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 9,74</t>
+          <t>1,03; 10,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 13,1</t>
+          <t>1,26; 13,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 13,16</t>
+          <t>2,31; 13,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,49</t>
+          <t>0,99; 9,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 7,06</t>
+          <t>1,06; 7,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,05</t>
+          <t>2,57; 9,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 8,98</t>
+          <t>2,11; 9,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 20,37</t>
+          <t>4,0; 22,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>0,0; 6,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,56</t>
+          <t>0,0; 9,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,6</t>
+          <t>0,0; 9,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,76</t>
+          <t>0,0; 12,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 11,91</t>
+          <t>2,39; 11,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,41</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 8,52</t>
+          <t>0,77; 8,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,74</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 10,64</t>
+          <t>1,86; 11,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,86</t>
+          <t>1,46; 6,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,64</t>
+          <t>0,4; 3,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,41</t>
+          <t>0,73; 6,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,46</t>
+          <t>1,42; 5,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,16</t>
+          <t>0,26; 2,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,66</t>
+          <t>1,97; 7,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,53</t>
+          <t>2,46; 6,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,74</t>
+          <t>1,3; 3,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,4</t>
+          <t>4,6; 9,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,28</t>
+          <t>1,81; 4,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,44</t>
+          <t>2,12; 4,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,41</t>
+          <t>5,44; 9,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,52</t>
+          <t>2,46; 4,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,77</t>
+          <t>2,04; 3,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,46</t>
+          <t>5,56; 8,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
